--- a/my-chatbot/client/public/Prueba2.xlsx
+++ b/my-chatbot/client/public/Prueba2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingotz/Desktop/Tesis/Datos /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576F24A-B511-D649-AB15-EAE00F3CB354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1846B5C-D747-C542-AFBD-D6A04110D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="103">
   <si>
     <t>Universidad</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>Estudios en ingeniería y tecnología aplicada.</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRRdYCe8S_AaE3YngFZ9B4dt8MKsEj_FcATWg&amp;s</t>
+  </si>
+  <si>
+    <t>https://apply.sabf.org.ar/static/img/itba_logo.jpg</t>
+  </si>
+  <si>
+    <t>https://artenlinea.s3-accelerate.amazonaws.com/digital_files/510/large_10177922_808898155804372_6764366353506386933_n.png</t>
   </si>
 </sst>
 </file>
@@ -697,1190 +709,1311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>76</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>52</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>79</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
         <v>4.5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>72</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>79</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>79</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>62</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4.5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4.5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>79</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>81</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>81</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
         <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>81</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
         <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>81</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>81</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>81</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
         <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>81</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>81</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
         <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>81</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
         <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29">
         <v>5</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>81</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>66</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>78</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>82</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>67</v>
       </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>78</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>82</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>53</v>
       </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>78</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>83</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>68</v>
       </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
         <v>74</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>78</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>84</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>45</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
         <v>74</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>78</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>84</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>74</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>78</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>85</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
         <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>74</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>78</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>86</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>70</v>
       </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
         <v>74</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>78</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>87</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>61</v>
       </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
         <v>74</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>78</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>87</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
         <v>74</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>78</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>87</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>54</v>
       </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
         <v>75</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>78</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>88</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my-chatbot/client/public/Prueba2.xlsx
+++ b/my-chatbot/client/public/Prueba2.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingotz/Desktop/Tesis/Datos /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martingotz/Desktop/Desktop/Tesis/Datos /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1846B5C-D747-C542-AFBD-D6A04110D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92988487-5DB2-AB4D-8477-B454355E150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UDESA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="530">
   <si>
     <t>Universidad</t>
   </si>
@@ -329,13 +342,1294 @@
   </si>
   <si>
     <t>https://artenlinea.s3-accelerate.amazonaws.com/digital_files/510/large_10177922_808898155804372_6764366353506386933_n.png</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Psicología</t>
+  </si>
+  <si>
+    <t>Universidad de Palermo</t>
+  </si>
+  <si>
+    <t>2.5 Años</t>
+  </si>
+  <si>
+    <t>Mario Bravo 1259 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>(011) 51994500</t>
+  </si>
+  <si>
+    <t>www.palermo.edu </t>
+  </si>
+  <si>
+    <t>informes@palermo.edu</t>
+  </si>
+  <si>
+    <t>4 Años</t>
+  </si>
+  <si>
+    <t>5 Años</t>
+  </si>
+  <si>
+    <t>Mario Bravo 1050 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>3 Años</t>
+  </si>
+  <si>
+    <t>1 Años</t>
+  </si>
+  <si>
+    <t>4.5 Años</t>
+  </si>
+  <si>
+    <t>2 Años</t>
+  </si>
+  <si>
+    <t>Larrea 1079 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>(11) 51994500</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayudante de Gabinete Psicológico  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Humanidades y Ciencias Sociales  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Periodismo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Psicología  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Relaciones Internacionales  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Ciencia Política  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abogado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurador  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Comunicación Publicitaria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicador/a Digital  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñador/a de Ilustración  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñador/a de Productos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñador/a Textil y de Indumentaria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilustrador/a  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Comunicación Digital  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Negocios de Diseño y Comunicación - Ciclo de Complementación Curricular  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Publicidad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productor/a de Modas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productor/a Musical  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Ciberseguridad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Inteligencia Artificial  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Organización de la Producción  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Redes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Sistemas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniero/a en Informática  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniero/a en Inteligencia Artificial  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniero/a Industrial  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Ciberseguridad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Informática  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Inteligencia Artificial  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Organización de la Producción  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Redes y Comunicación de Datos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Tecnología de la Información-Ciclo de Complementación Curricular  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Tecnología de la Información  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Administrativo Contable  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario/a en Comercialización  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario en Administración  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario en Comercialización y Dirección de Empresas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario en Comercio Internacional  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Universitario en Recursos Humanos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contador Público  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Comercialización  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado/a en Management en Turismo y Hospitalidad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Administración de Sistemas y Empresas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Administración  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Comercio Internacional  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Management  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Marketing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciado en Recursos Humanos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Técnico/a Universitario/a en Turismo y Hospitalidad  </t>
+  </si>
+  <si>
+    <t>Asistencia en psicología.</t>
+  </si>
+  <si>
+    <t>Estudio de humanidades.</t>
+  </si>
+  <si>
+    <t>Periodismo y medios.</t>
+  </si>
+  <si>
+    <t>Comportamiento humano.</t>
+  </si>
+  <si>
+    <t>Relaciones globales.</t>
+  </si>
+  <si>
+    <t>Política y sociedad.</t>
+  </si>
+  <si>
+    <t>Derecho y leyes.</t>
+  </si>
+  <si>
+    <t>Representación legal.</t>
+  </si>
+  <si>
+    <t>Comunicación digital.</t>
+  </si>
+  <si>
+    <t>Ilustraciones visuales.</t>
+  </si>
+  <si>
+    <t>Diseño de productos.</t>
+  </si>
+  <si>
+    <t>Diseño textil.</t>
+  </si>
+  <si>
+    <t>Arte gráfico.</t>
+  </si>
+  <si>
+    <t>Comunicación moderna.</t>
+  </si>
+  <si>
+    <t>Negocios y diseño.</t>
+  </si>
+  <si>
+    <t>Publicidad creativa.</t>
+  </si>
+  <si>
+    <t>Producción de moda.</t>
+  </si>
+  <si>
+    <t>Producción musical.</t>
+  </si>
+  <si>
+    <t>Seguridad informática.</t>
+  </si>
+  <si>
+    <t>Sistemas inteligentes.</t>
+  </si>
+  <si>
+    <t>Gestión industrial.</t>
+  </si>
+  <si>
+    <t>Redes informáticas.</t>
+  </si>
+  <si>
+    <t>Desarrollo de software.</t>
+  </si>
+  <si>
+    <t>Computación avanzada.</t>
+  </si>
+  <si>
+    <t>Procesos industriales.</t>
+  </si>
+  <si>
+    <t>Ciberseguridad avanzada.</t>
+  </si>
+  <si>
+    <t>Informática aplicada.</t>
+  </si>
+  <si>
+    <t>Inteligencia artificial.</t>
+  </si>
+  <si>
+    <t>Gestión de producción.</t>
+  </si>
+  <si>
+    <t>Redes y datos.</t>
+  </si>
+  <si>
+    <t>Gestión tecnológica.</t>
+  </si>
+  <si>
+    <t>Administración contable.</t>
+  </si>
+  <si>
+    <t>Estrategias comerciales.</t>
+  </si>
+  <si>
+    <t>Administración básica.</t>
+  </si>
+  <si>
+    <t>Negocios internacionales.</t>
+  </si>
+  <si>
+    <t>Gestión de recursos humanos.</t>
+  </si>
+  <si>
+    <t>Contabilidad pública.</t>
+  </si>
+  <si>
+    <t>Marketing aplicado.</t>
+  </si>
+  <si>
+    <t>Turismo y hospitalidad.</t>
+  </si>
+  <si>
+    <t>Sistemas empresariales.</t>
+  </si>
+  <si>
+    <t>Gestión empresarial.</t>
+  </si>
+  <si>
+    <t>Comercio global.</t>
+  </si>
+  <si>
+    <t>Gestión organizacional.</t>
+  </si>
+  <si>
+    <t>Marketing y ventas.</t>
+  </si>
+  <si>
+    <t>Gestión de personal.</t>
+  </si>
+  <si>
+    <t>Turismo y servicios.</t>
+  </si>
+  <si>
+    <t>Descripción no disponible.</t>
+  </si>
+  <si>
+    <t>Humanidades y Cs. Sociales</t>
+  </si>
+  <si>
+    <t>Periodismo</t>
+  </si>
+  <si>
+    <t>Derecho</t>
+  </si>
+  <si>
+    <t>Procuradoría</t>
+  </si>
+  <si>
+    <t>Comunicación Publicitaria</t>
+  </si>
+  <si>
+    <t>Comunicación Digital</t>
+  </si>
+  <si>
+    <t>Diseño de Ilustración</t>
+  </si>
+  <si>
+    <t>Diseño de Productos</t>
+  </si>
+  <si>
+    <t>Diseño Textil e Indumentaria</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Negocios de Diseño y Comunicación</t>
+  </si>
+  <si>
+    <t>Publicidad</t>
+  </si>
+  <si>
+    <t>Producción de Modas</t>
+  </si>
+  <si>
+    <t>Producción Musical</t>
+  </si>
+  <si>
+    <t>Ciberseguridad</t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>Organización de Producción</t>
+  </si>
+  <si>
+    <t>Redes</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>IA Aplicada</t>
+  </si>
+  <si>
+    <t>Ingeniería Industrial</t>
+  </si>
+  <si>
+    <t>Ciberseguridad Avanzada</t>
+  </si>
+  <si>
+    <t>Informática Aplicada</t>
+  </si>
+  <si>
+    <t>IA Empresarial</t>
+  </si>
+  <si>
+    <t>Gestión de Producción</t>
+  </si>
+  <si>
+    <t>Redes y Datos</t>
+  </si>
+  <si>
+    <t>Tecnología de la Información</t>
+  </si>
+  <si>
+    <t>TI Aplicada</t>
+  </si>
+  <si>
+    <t>Contabilidad Administrativa</t>
+  </si>
+  <si>
+    <t>Comercialización</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>Comercialización y Dirección</t>
+  </si>
+  <si>
+    <t>Comercio Internacional</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Gestión Turística</t>
+  </si>
+  <si>
+    <t>Sistemas y Empresas</t>
+  </si>
+  <si>
+    <t>Gestión Empresarial</t>
+  </si>
+  <si>
+    <t>Comercio Global</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Marketing Estratégico</t>
+  </si>
+  <si>
+    <t>Gestión de Personal</t>
+  </si>
+  <si>
+    <t>Turismo y Hospitalidad</t>
+  </si>
+  <si>
+    <t>Ayudante Psicológico</t>
+  </si>
+  <si>
+    <t>Universidad Austral</t>
+  </si>
+  <si>
+    <t>Licenciado en Educación Inicial</t>
+  </si>
+  <si>
+    <t>Mariano Acosta 1611 - Pilar - Buenos Aires</t>
+  </si>
+  <si>
+    <t>(011) 52398000</t>
+  </si>
+  <si>
+    <t>http://web.austral.edu.ar/escuelaEducacion-home.asp </t>
+  </si>
+  <si>
+    <t>eeducacion@austral.edu.ar</t>
+  </si>
+  <si>
+    <t>Licenciado en Educación Primaria</t>
+  </si>
+  <si>
+    <t>Licenciado en Organización y Gestión Educativa - Ciclo de Licenciatura</t>
+  </si>
+  <si>
+    <t>Profesor Universitario de Educación Inicial</t>
+  </si>
+  <si>
+    <t>Profesor Universitario de Educación Primaria</t>
+  </si>
+  <si>
+    <t>Profesor Universitario para el Nivel Secundario y Superior (en el Campo de la Disciplina) - Ciclo de Profesorado</t>
+  </si>
+  <si>
+    <t>Enfermero/a</t>
+  </si>
+  <si>
+    <t>Juan Domingo Perón 1500 -ex - Pilar - Buenos Aires</t>
+  </si>
+  <si>
+    <t>(0230) 4482000</t>
+  </si>
+  <si>
+    <t>http://www.austral.edu.ar/cienciasbiomedicas </t>
+  </si>
+  <si>
+    <t>fcb@cas.austral.edu.ar</t>
+  </si>
+  <si>
+    <t>Licenciado en Enfermería</t>
+  </si>
+  <si>
+    <t>Licenciado en Enfermería - Ciclo de Licenciatura</t>
+  </si>
+  <si>
+    <t>Licenciado en Nutrición</t>
+  </si>
+  <si>
+    <t>Licenciado en Psicología</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>6 Años</t>
+  </si>
+  <si>
+    <t>Paraguay 1950 - Rosario - Santa Fé</t>
+  </si>
+  <si>
+    <t>(0341) 5223000</t>
+  </si>
+  <si>
+    <t>http://web.austral.edu.ar/cienciasEmpresariales-home.asp </t>
+  </si>
+  <si>
+    <t>informesfce@austral.edu.ar</t>
+  </si>
+  <si>
+    <t>Licenciado/a en Comercialización y Marketing Estratégico</t>
+  </si>
+  <si>
+    <t>Licenciado en Agronegocios</t>
+  </si>
+  <si>
+    <t>Licenciado en Ciencias Empresariales</t>
+  </si>
+  <si>
+    <t>Licenciado/a en Marketing con Orientación en Comunicación y Diseño</t>
+  </si>
+  <si>
+    <t>http://web.austral.edu.ar/comunicacion-home.asp </t>
+  </si>
+  <si>
+    <t>informesfc@austral.edu.ar</t>
+  </si>
+  <si>
+    <t>Licenciado en Comunicación Social</t>
+  </si>
+  <si>
+    <t>http://www.austral.edu.ar/derecho/ </t>
+  </si>
+  <si>
+    <t>informesfd@austral.edu.ar</t>
+  </si>
+  <si>
+    <t>Ingeniero Biomédico</t>
+  </si>
+  <si>
+    <t>Mariano Acosta 1901 - Pilar - Buenos Aires</t>
+  </si>
+  <si>
+    <t>(0230) 4387513</t>
+  </si>
+  <si>
+    <t>http://www.austral.edu.ar/ingenieria/ </t>
+  </si>
+  <si>
+    <t>informesfi@austral.edu.ar</t>
+  </si>
+  <si>
+    <t>Licenciado/a en Ciencia de Datos</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Programación</t>
+  </si>
+  <si>
+    <t>Educación Inicial</t>
+  </si>
+  <si>
+    <t>Gestión Educativa</t>
+  </si>
+  <si>
+    <t>Prof. Educación Inicial</t>
+  </si>
+  <si>
+    <t>Prof. Educación Primaria</t>
+  </si>
+  <si>
+    <t>Prof. Secundario y Superior</t>
+  </si>
+  <si>
+    <t>Enfermería</t>
+  </si>
+  <si>
+    <t>Lic. Enfermería</t>
+  </si>
+  <si>
+    <t>Nutrición</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>Administración de Empresas</t>
+  </si>
+  <si>
+    <t>Agronegocios</t>
+  </si>
+  <si>
+    <t>Cs. Empresariales</t>
+  </si>
+  <si>
+    <t>Marketing y Diseño</t>
+  </si>
+  <si>
+    <t>Comunicación Social</t>
+  </si>
+  <si>
+    <t>Abogacía</t>
+  </si>
+  <si>
+    <t>Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>Ingeniería Informática</t>
+  </si>
+  <si>
+    <t>Ciencia de Datos</t>
+  </si>
+  <si>
+    <t>Programación</t>
+  </si>
+  <si>
+    <t>AUSTRAL</t>
+  </si>
+  <si>
+    <t>Enseñanza y desarrollo en la primera infancia.</t>
+  </si>
+  <si>
+    <t>Formación de niños en nivel primario.</t>
+  </si>
+  <si>
+    <t>Organización y administración de instituciones educativas.</t>
+  </si>
+  <si>
+    <t>Docencia para la educación inicial.</t>
+  </si>
+  <si>
+    <t>Enseñanza especializada en nivel primario.</t>
+  </si>
+  <si>
+    <t>Docencia en niveles medio y superior.</t>
+  </si>
+  <si>
+    <t>Cuidado de la salud y atención médica básica.</t>
+  </si>
+  <si>
+    <t>Liderazgo y gestión en áreas de enfermería.</t>
+  </si>
+  <si>
+    <t>Alimentación saludable y bienestar físico.</t>
+  </si>
+  <si>
+    <t>Estudio del comportamiento y la mente humana.</t>
+  </si>
+  <si>
+    <t>Diagnóstico y tratamiento de enfermedades.</t>
+  </si>
+  <si>
+    <t>Gestión financiera y auditoría contable.</t>
+  </si>
+  <si>
+    <t>Estrategias para mercados y consumidores.</t>
+  </si>
+  <si>
+    <t>Gestión eficiente de organizaciones empresariales.</t>
+  </si>
+  <si>
+    <t>Administración y producción en el sector agrícola.</t>
+  </si>
+  <si>
+    <t>Conocimientos integrales de negocios y empresas.</t>
+  </si>
+  <si>
+    <t>Análisis económico aplicado a empresas.</t>
+  </si>
+  <si>
+    <t>Comercio y estrategias en plataformas digitales.</t>
+  </si>
+  <si>
+    <t>Comunicación visual para estrategias de mercado.</t>
+  </si>
+  <si>
+    <t>Transmisión efectiva de mensajes y contenido.</t>
+  </si>
+  <si>
+    <t>Impacto social a través de los medios de comunicación.</t>
+  </si>
+  <si>
+    <t>Creación y desarrollo de productos visuales.</t>
+  </si>
+  <si>
+    <t>Derecho y aplicación de leyes.</t>
+  </si>
+  <si>
+    <t>Análisis de sistemas políticos y gubernamentales.</t>
+  </si>
+  <si>
+    <t>Interacción entre países y organizaciones globales.</t>
+  </si>
+  <si>
+    <t>Innovación tecnológica en medicina y salud.</t>
+  </si>
+  <si>
+    <t>Desarrollo de software y sistemas computacionales.</t>
+  </si>
+  <si>
+    <t>Optimización de procesos y recursos industriales.</t>
+  </si>
+  <si>
+    <t>Análisis y gestión de datos masivos.</t>
+  </si>
+  <si>
+    <t>Creación de software y aplicaciones.</t>
+  </si>
+  <si>
+    <t>Gestión de tecnologías de la información y comunicación.</t>
+  </si>
+  <si>
+    <t>Universidad de Belgrano</t>
+  </si>
+  <si>
+    <t>Agente de Viajes y Turismo</t>
+  </si>
+  <si>
+    <t>Zabala 1837 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>(011) 47885400</t>
+  </si>
+  <si>
+    <t>www.ub.edu.ar </t>
+  </si>
+  <si>
+    <t>ingresos@ub.edu.ar</t>
+  </si>
+  <si>
+    <t>Licenciado/a en Gastronomía</t>
+  </si>
+  <si>
+    <t>Licenciado/a en Hotelería</t>
+  </si>
+  <si>
+    <t>Licenciado/a en Turismo - Ciclo de Complementación Curricular</t>
+  </si>
+  <si>
+    <t>Licenciado en Hotelería</t>
+  </si>
+  <si>
+    <t>Licenciado en Turismo - Ciclo de Complementación Curricular</t>
+  </si>
+  <si>
+    <t>Técnico/a Universitario/a en Administración con Orientación Hotelería</t>
+  </si>
+  <si>
+    <t>5.5 Años</t>
+  </si>
+  <si>
+    <t>Licenciado en Diseño de Interiores</t>
+  </si>
+  <si>
+    <t>Licenciado en Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>Licenciado en Publicidad</t>
+  </si>
+  <si>
+    <t>Técnico/a en Diseño de Indumentaria</t>
+  </si>
+  <si>
+    <t>Técnico en Diseño de Indumentaria</t>
+  </si>
+  <si>
+    <t>Licenciado en Administración y Gestión de Agronegocios</t>
+  </si>
+  <si>
+    <t>Federico Lacroze 1955 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Técnico/a Universitario/a en Producción Agraria</t>
+  </si>
+  <si>
+    <t>Técnico en Producción Agraria</t>
+  </si>
+  <si>
+    <t>Villanueva 1324 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Analista Universitario/a en Gestión de Capital Humano</t>
+  </si>
+  <si>
+    <t>Licenciado en Administración</t>
+  </si>
+  <si>
+    <t>Licenciado en Administración de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Licenciado en Comercialización</t>
+  </si>
+  <si>
+    <t>Licenciado en Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Técnico/a Universitario/a en Administración con Orientación en Pequeña y Mediana Empresa</t>
+  </si>
+  <si>
+    <t>Técnico en Administración con orientación en Pequeña y Mediana Empresa</t>
+  </si>
+  <si>
+    <t>Técnico en Administración con orientación en Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Administración Hotelera</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Comercialización</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Comercio Internacional</t>
+  </si>
+  <si>
+    <t>Farmacéutico</t>
+  </si>
+  <si>
+    <t>Licenciado en Ciencias Biológicas</t>
+  </si>
+  <si>
+    <t>Licenciado en Ciencias Químicas</t>
+  </si>
+  <si>
+    <t>Licenciado en Tecnología de Alimentos</t>
+  </si>
+  <si>
+    <t>Licenciado en Ciencia Política, Gobierno y Administración</t>
+  </si>
+  <si>
+    <t>Licenciado en Ciencias de la Comunicación</t>
+  </si>
+  <si>
+    <t>Av. Federico Lacroze 1955 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>(011) 45114740</t>
+  </si>
+  <si>
+    <t>http://www.ub.edu.ar/ </t>
+  </si>
+  <si>
+    <t>titolasanta@gmail.com</t>
+  </si>
+  <si>
+    <t>Acompañante Terapéutico</t>
+  </si>
+  <si>
+    <t>Licenciado en Producción y Dirección de Televisión, Cine y Radio</t>
+  </si>
+  <si>
+    <t>Licenciado en Relaciones Públicas e Institucionales</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Producción de Medios Audiovisuales, Eventos y Espectáculos</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Producción Integral de Televisión Digital</t>
+  </si>
+  <si>
+    <t>Licenciado en Lengua Inglesa - Ciclo de Licenciatura</t>
+  </si>
+  <si>
+    <t>Traductor/a Público/a, Literario/a y Científico/a Técnico/a de Inglés</t>
+  </si>
+  <si>
+    <t>Traductor/a Público/a, Literario/a y Técnico/a Científico/a de Inglés</t>
+  </si>
+  <si>
+    <t>Traductor Público, Literario y Científico-Técnico de Inglés - Ciclo de Traductorado</t>
+  </si>
+  <si>
+    <t>Ingeniero/a Civil</t>
+  </si>
+  <si>
+    <t>Federico Lacroze 1947 - Ciudad Autonoma de Buenos Aires - Ciudad Autonoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Ingeniero/a Electrónico/a con Orientación en Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Ingeniero/a Industrial</t>
+  </si>
+  <si>
+    <t>Ingeniero Electromecánico</t>
+  </si>
+  <si>
+    <t>Licenciado en Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Técnico en Programación de Computadoras</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Contenidos Interactivos y Nuevos Medios</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Diseño y Animación Digital</t>
+  </si>
+  <si>
+    <t>Técnico Universitario en Redes y Seguridad Informática</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Viajes y Turismo</t>
+  </si>
+  <si>
+    <t>Gastronomía</t>
+  </si>
+  <si>
+    <t>Hotelería</t>
+  </si>
+  <si>
+    <t>Turismo (Complementación)</t>
+  </si>
+  <si>
+    <t>Hotelería (Lic.)</t>
+  </si>
+  <si>
+    <t>Adm. Hotelería</t>
+  </si>
+  <si>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>Diseño de Interiores</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>Diseño de Indumentaria</t>
+  </si>
+  <si>
+    <t>Indumentaria (Téc.)</t>
+  </si>
+  <si>
+    <t>Adm. y Agronegocios</t>
+  </si>
+  <si>
+    <t>Producción Agraria</t>
+  </si>
+  <si>
+    <t>Producción Agraria (Téc.)</t>
+  </si>
+  <si>
+    <t>Gestión de Capital Humano</t>
+  </si>
+  <si>
+    <t>Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Adm. PyME</t>
+  </si>
+  <si>
+    <t>Adm. PyME (Téc.)</t>
+  </si>
+  <si>
+    <t>Recursos Humanos (Téc.)</t>
+  </si>
+  <si>
+    <t>Adm. Hotelera (Téc.)</t>
+  </si>
+  <si>
+    <t>Comercialización (Téc.)</t>
+  </si>
+  <si>
+    <t>Comercio Internacional (Téc.)</t>
+  </si>
+  <si>
+    <t>Farmacia</t>
+  </si>
+  <si>
+    <t>Ciencias Biológicas</t>
+  </si>
+  <si>
+    <t>Ciencias Químicas</t>
+  </si>
+  <si>
+    <t>Tecnología de Alimentos</t>
+  </si>
+  <si>
+    <t>PyME (Téc.)</t>
+  </si>
+  <si>
+    <t>Producción Audiovisual</t>
+  </si>
+  <si>
+    <t>Relaciones Públicas</t>
+  </si>
+  <si>
+    <t>Producción de Medios (Téc.)</t>
+  </si>
+  <si>
+    <t>Televisión Digital (Téc.)</t>
+  </si>
+  <si>
+    <t>Lengua Inglesa</t>
+  </si>
+  <si>
+    <t>Traductor Inglés (Lic.)</t>
+  </si>
+  <si>
+    <t>Traductor Inglés (Téc.)</t>
+  </si>
+  <si>
+    <t>Traductor Inglés</t>
+  </si>
+  <si>
+    <t>Ingeniería Civil</t>
+  </si>
+  <si>
+    <t>Ingeniería Electrónica</t>
+  </si>
+  <si>
+    <t>Ingeniería Electromecánica</t>
+  </si>
+  <si>
+    <t>Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Programación de Computadoras</t>
+  </si>
+  <si>
+    <t>Contenidos Interactivos</t>
+  </si>
+  <si>
+    <t>Diseño y Animación Digital</t>
+  </si>
+  <si>
+    <t>Redes y Seguridad Informática</t>
+  </si>
+  <si>
+    <t>Organización de viajes y turismo.</t>
+  </si>
+  <si>
+    <t>Artes culinarias y gastronomía.</t>
+  </si>
+  <si>
+    <t>Administración en el sector hotelero.</t>
+  </si>
+  <si>
+    <t>Gestión en turismo y recreación.</t>
+  </si>
+  <si>
+    <t>Dirección y administración en hotelería.</t>
+  </si>
+  <si>
+    <t>Planificación y operación de turismo.</t>
+  </si>
+  <si>
+    <t>Administración hotelera y servicios turísticos.</t>
+  </si>
+  <si>
+    <t>Diseño y construcción arquitectónica.</t>
+  </si>
+  <si>
+    <t>Diseño de interiores funcionales y estéticos.</t>
+  </si>
+  <si>
+    <t>Comunicación visual y diseño gráfico.</t>
+  </si>
+  <si>
+    <t>Estrategias creativas en publicidad.</t>
+  </si>
+  <si>
+    <t>Diseño de ropa y accesorios.</t>
+  </si>
+  <si>
+    <t>Moda y confección textil.</t>
+  </si>
+  <si>
+    <t>Gestión y administración de agronegocios.</t>
+  </si>
+  <si>
+    <t>Producción agrícola y gestión sostenible.</t>
+  </si>
+  <si>
+    <t>Agricultura y manejo productivo.</t>
+  </si>
+  <si>
+    <t>Alimentación y bienestar nutricional.</t>
+  </si>
+  <si>
+    <t>Gestión de talento humano.</t>
+  </si>
+  <si>
+    <t>Finanzas y contabilidad profesional.</t>
+  </si>
+  <si>
+    <t>Gestión organizacional y administrativa.</t>
+  </si>
+  <si>
+    <t>Recursos humanos y desarrollo organizacional.</t>
+  </si>
+  <si>
+    <t>Estrategias de mercado y comercialización.</t>
+  </si>
+  <si>
+    <t>Comercio internacional y negocios globales.</t>
+  </si>
+  <si>
+    <t>Análisis económico aplicado.</t>
+  </si>
+  <si>
+    <t>Hotelería y turismo global.</t>
+  </si>
+  <si>
+    <t>Administración enfocada en PyMEs.</t>
+  </si>
+  <si>
+    <t>Gestión empresarial en pequeñas empresas.</t>
+  </si>
+  <si>
+    <t>Recursos humanos y liderazgo organizacional.</t>
+  </si>
+  <si>
+    <t>Gestión hotelera operativa.</t>
+  </si>
+  <si>
+    <t>Ventas y estrategias de mercado.</t>
+  </si>
+  <si>
+    <t>Comercio internacional y exportaciones.</t>
+  </si>
+  <si>
+    <t>Farmacología y salud.</t>
+  </si>
+  <si>
+    <t>Ciencias biológicas y biodiversidad.</t>
+  </si>
+  <si>
+    <t>Procesos químicos y aplicaciones científicas.</t>
+  </si>
+  <si>
+    <t>Producción y tecnología alimentaria.</t>
+  </si>
+  <si>
+    <t>Análisis político y gobierno.</t>
+  </si>
+  <si>
+    <t>Comunicación social y medios.</t>
+  </si>
+  <si>
+    <t>Relaciones globales y diplomacia.</t>
+  </si>
+  <si>
+    <t>Gestión empresarial para pequeñas empresas.</t>
+  </si>
+  <si>
+    <t>Apoyo terapéutico y acompañamiento emocional.</t>
+  </si>
+  <si>
+    <t>Gestión de viajes y turismo.</t>
+  </si>
+  <si>
+    <t>Producción audiovisual y dirección creativa.</t>
+  </si>
+  <si>
+    <t>Estudio del comportamiento humano.</t>
+  </si>
+  <si>
+    <t>Comunicación y relaciones institucionales.</t>
+  </si>
+  <si>
+    <t>Producción de medios y eventos.</t>
+  </si>
+  <si>
+    <t>Producción de contenido televisivo.</t>
+  </si>
+  <si>
+    <t>Lengua y cultura inglesa.</t>
+  </si>
+  <si>
+    <t>Traducción literaria y técnica en inglés.</t>
+  </si>
+  <si>
+    <t>Traducción profesional al inglés.</t>
+  </si>
+  <si>
+    <t>Interpretación y traducción en inglés.</t>
+  </si>
+  <si>
+    <t>Construcción y diseño de infraestructura civil.</t>
+  </si>
+  <si>
+    <t>Sistemas electrónicos y telecomunicaciones.</t>
+  </si>
+  <si>
+    <t>Optimización de procesos industriales.</t>
+  </si>
+  <si>
+    <t>Sistemas mecánicos y eléctricos.</t>
+  </si>
+  <si>
+    <t>Desarrollo de software y computación.</t>
+  </si>
+  <si>
+    <t>Sistemas de información y análisis computacional.</t>
+  </si>
+  <si>
+    <t>Programación y desarrollo de aplicaciones.</t>
+  </si>
+  <si>
+    <t>Contenido interactivo y tecnologías digitales.</t>
+  </si>
+  <si>
+    <t>Diseño y animación computarizada.</t>
+  </si>
+  <si>
+    <t>Seguridad informática y redes computacionales.</t>
+  </si>
+  <si>
+    <t>Vito Dumas 284, B1644BID Victoria, Provincia de Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Lavardén 315, C1437 Cdad. Autónoma de Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Av. Pres. Figueroa Alcorta 7350, C1428 Cdad. Autónoma de Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTepzjs78k5KFGt2kHbB3p1Rxh3-4j8JQ28Yw&amp;s</t>
+  </si>
+  <si>
+    <t>https://yt3.googleusercontent.com/tovfSJj7qWmtswS47ZxQ87Fx7iXL5Ms12tIZdihQNFVmhpu5LnWDneqCzXsmWwz9dxMObToXUw=s160-c-k-c0x00ffffff-no-rj</t>
+  </si>
+  <si>
+    <t>https://yt3.googleusercontent.com/qsYtKITsTtBvMiqCa1JdvDsA6ipKLTa2GncJ87fHOavytQ6mkgmQgitjzf3s3DWeM1VLfb5kccI=s900-c-k-c0x00ffffff-no-rj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +1652,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +1675,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -390,6 +1698,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,12 +1717,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -709,20 +2033,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,12 +2080,15 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C2" t="s">
@@ -785,8 +2115,11 @@
       <c r="J2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -817,8 +2150,11 @@
       <c r="J3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -849,8 +2185,11 @@
       <c r="J4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -881,8 +2220,11 @@
       <c r="J5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -913,8 +2255,11 @@
       <c r="J6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -945,8 +2290,11 @@
       <c r="J7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -977,8 +2325,11 @@
       <c r="J8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +2360,11 @@
       <c r="J9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1041,8 +2395,11 @@
       <c r="J10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1073,8 +2430,11 @@
       <c r="J11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +2465,11 @@
       <c r="J12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1137,8 +2500,11 @@
       <c r="J13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +2535,11 @@
       <c r="J14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1201,8 +2570,11 @@
       <c r="J15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1233,8 +2605,11 @@
       <c r="J16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +2640,11 @@
       <c r="J17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1297,8 +2675,11 @@
       <c r="J18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1329,8 +2710,11 @@
       <c r="J19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +2736,7 @@
       <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I20" t="s">
@@ -1361,8 +2745,11 @@
       <c r="J20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +2771,7 @@
       <c r="G21" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I21" t="s">
@@ -1393,8 +2780,11 @@
       <c r="J21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +2806,7 @@
       <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
@@ -1425,8 +2815,11 @@
       <c r="J22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +2841,7 @@
       <c r="G23" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I23" t="s">
@@ -1457,8 +2850,11 @@
       <c r="J23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +2876,7 @@
       <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I24" t="s">
@@ -1489,8 +2885,11 @@
       <c r="J24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +2911,7 @@
       <c r="G25" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I25" t="s">
@@ -1521,8 +2920,11 @@
       <c r="J25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +2946,7 @@
       <c r="G26" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I26" t="s">
@@ -1553,8 +2955,11 @@
       <c r="J26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +2981,7 @@
       <c r="G27" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I27" t="s">
@@ -1585,8 +2990,11 @@
       <c r="J27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +3016,7 @@
       <c r="G28" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I28" t="s">
@@ -1617,8 +3025,11 @@
       <c r="J28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1640,7 +3051,7 @@
       <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I29" t="s">
@@ -1649,8 +3060,11 @@
       <c r="J29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1681,8 +3095,11 @@
       <c r="J30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1713,8 +3130,11 @@
       <c r="J31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1745,8 +3165,11 @@
       <c r="J32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1777,8 +3200,11 @@
       <c r="J33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1809,8 +3235,11 @@
       <c r="J34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1841,8 +3270,11 @@
       <c r="J35" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1873,8 +3305,11 @@
       <c r="J36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1905,8 +3340,11 @@
       <c r="J37" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1937,8 +3375,11 @@
       <c r="J38" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1969,8 +3410,11 @@
       <c r="J39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2000,6 +3444,4970 @@
       </c>
       <c r="J40" t="s">
         <v>97</v>
+      </c>
+      <c r="K40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" t="s">
+        <v>110</v>
+      </c>
+      <c r="J42" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>528</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>528</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>528</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" t="s">
+        <v>175</v>
+      </c>
+      <c r="K45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>528</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" t="s">
+        <v>177</v>
+      </c>
+      <c r="K47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>528</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>179</v>
+      </c>
+      <c r="K49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>528</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J50" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J51" t="s">
+        <v>181</v>
+      </c>
+      <c r="K51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>528</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" t="s">
+        <v>182</v>
+      </c>
+      <c r="K52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>528</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" t="s">
+        <v>183</v>
+      </c>
+      <c r="K53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" t="s">
+        <v>184</v>
+      </c>
+      <c r="K54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>528</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55" t="s">
+        <v>185</v>
+      </c>
+      <c r="K55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>528</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" t="s">
+        <v>186</v>
+      </c>
+      <c r="K56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>528</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" t="s">
+        <v>110</v>
+      </c>
+      <c r="J58" t="s">
+        <v>188</v>
+      </c>
+      <c r="K58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>528</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" t="s">
+        <v>189</v>
+      </c>
+      <c r="K59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>528</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" t="s">
+        <v>110</v>
+      </c>
+      <c r="J60" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>528</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" t="s">
+        <v>110</v>
+      </c>
+      <c r="J61" t="s">
+        <v>191</v>
+      </c>
+      <c r="K61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>528</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>528</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63" t="s">
+        <v>193</v>
+      </c>
+      <c r="K63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>528</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J64" t="s">
+        <v>194</v>
+      </c>
+      <c r="K64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>528</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" t="s">
+        <v>110</v>
+      </c>
+      <c r="J65" t="s">
+        <v>195</v>
+      </c>
+      <c r="K65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>528</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
+        <v>196</v>
+      </c>
+      <c r="K66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>528</v>
+      </c>
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>528</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I68" t="s">
+        <v>110</v>
+      </c>
+      <c r="J68" t="s">
+        <v>198</v>
+      </c>
+      <c r="K68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>528</v>
+      </c>
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+      <c r="J69" t="s">
+        <v>199</v>
+      </c>
+      <c r="K69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" t="s">
+        <v>528</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" t="s">
+        <v>200</v>
+      </c>
+      <c r="K70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>201</v>
+      </c>
+      <c r="K71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>528</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+      <c r="J72" t="s">
+        <v>202</v>
+      </c>
+      <c r="K72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>528</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>528</v>
+      </c>
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J74" t="s">
+        <v>204</v>
+      </c>
+      <c r="K74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>528</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>528</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+      <c r="J76" t="s">
+        <v>206</v>
+      </c>
+      <c r="K76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>528</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+      <c r="J77" t="s">
+        <v>207</v>
+      </c>
+      <c r="K77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>528</v>
+      </c>
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" t="s">
+        <v>106</v>
+      </c>
+      <c r="G78" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+      <c r="J78" t="s">
+        <v>208</v>
+      </c>
+      <c r="K78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>528</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79" t="s">
+        <v>119</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+      <c r="J80" t="s">
+        <v>210</v>
+      </c>
+      <c r="K80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>528</v>
+      </c>
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>211</v>
+      </c>
+      <c r="K81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>528</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>119</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+      <c r="J82" t="s">
+        <v>212</v>
+      </c>
+      <c r="K82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" t="s">
+        <v>119</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>213</v>
+      </c>
+      <c r="K83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+      <c r="J84" t="s">
+        <v>214</v>
+      </c>
+      <c r="K84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>528</v>
+      </c>
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" t="s">
+        <v>215</v>
+      </c>
+      <c r="K85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>528</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>119</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+      <c r="J86" t="s">
+        <v>216</v>
+      </c>
+      <c r="K86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>528</v>
+      </c>
+      <c r="C87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+      <c r="J87" t="s">
+        <v>217</v>
+      </c>
+      <c r="K87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>528</v>
+      </c>
+      <c r="C88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+      <c r="K88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>528</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I89" t="s">
+        <v>110</v>
+      </c>
+      <c r="K89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I90" t="s">
+        <v>110</v>
+      </c>
+      <c r="K90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J91" t="s">
+        <v>326</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J92" t="s">
+        <v>327</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" t="s">
+        <v>307</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J93" t="s">
+        <v>328</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J94" t="s">
+        <v>329</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" t="s">
+        <v>309</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J95" t="s">
+        <v>330</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J96" t="s">
+        <v>331</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" t="s">
+        <v>311</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J97" t="s">
+        <v>332</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D98" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J98" t="s">
+        <v>333</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J99" t="s">
+        <v>334</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J100" t="s">
+        <v>335</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J101" t="s">
+        <v>336</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D102" t="s">
+        <v>314</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J102" t="s">
+        <v>337</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J103" t="s">
+        <v>338</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J104" t="s">
+        <v>339</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J105" t="s">
+        <v>340</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J106" t="s">
+        <v>341</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J107" t="s">
+        <v>342</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J108" t="s">
+        <v>343</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J109" t="s">
+        <v>344</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J110" t="s">
+        <v>345</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J111" t="s">
+        <v>346</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J112" t="s">
+        <v>347</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J113" t="s">
+        <v>348</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J114" t="s">
+        <v>349</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J115" t="s">
+        <v>350</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J116" t="s">
+        <v>351</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D117" t="s">
+        <v>321</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J117" t="s">
+        <v>352</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" t="s">
+        <v>322</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J118" t="s">
+        <v>353</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D119" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J119" t="s">
+        <v>354</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D120" t="s">
+        <v>323</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J120" t="s">
+        <v>355</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D121" t="s">
+        <v>324</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J121" t="s">
+        <v>356</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D122" t="s">
+        <v>421</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J122" t="s">
+        <v>464</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D123" t="s">
+        <v>422</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J123" t="s">
+        <v>465</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D124" t="s">
+        <v>423</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J124" t="s">
+        <v>466</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D125" t="s">
+        <v>424</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J125" t="s">
+        <v>467</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D126" t="s">
+        <v>425</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J126" t="s">
+        <v>468</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D127" t="s">
+        <v>424</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J127" t="s">
+        <v>469</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D128" t="s">
+        <v>426</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J128" t="s">
+        <v>470</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D129" t="s">
+        <v>427</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J129" t="s">
+        <v>471</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D130" t="s">
+        <v>428</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J130" t="s">
+        <v>472</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D131" t="s">
+        <v>429</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J131" t="s">
+        <v>473</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D132" t="s">
+        <v>229</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J132" t="s">
+        <v>474</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D133" t="s">
+        <v>430</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J133" t="s">
+        <v>475</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D134" t="s">
+        <v>431</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J134" t="s">
+        <v>476</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D135" t="s">
+        <v>432</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J135" t="s">
+        <v>477</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D136" t="s">
+        <v>433</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J136" t="s">
+        <v>478</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" t="s">
+        <v>434</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J137" t="s">
+        <v>479</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D138" t="s">
+        <v>313</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J138" t="s">
+        <v>480</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D139" t="s">
+        <v>435</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J139" t="s">
+        <v>481</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J140" t="s">
+        <v>482</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D141" t="s">
+        <v>249</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J141" t="s">
+        <v>483</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D142" t="s">
+        <v>252</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J142" t="s">
+        <v>484</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D143" t="s">
+        <v>248</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J143" t="s">
+        <v>485</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D144" t="s">
+        <v>436</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J144" t="s">
+        <v>486</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J145" t="s">
+        <v>487</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D146" t="s">
+        <v>425</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J146" t="s">
+        <v>488</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D147" t="s">
+        <v>437</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J147" t="s">
+        <v>489</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" t="s">
+        <v>438</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J148" t="s">
+        <v>490</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D149" t="s">
+        <v>439</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J149" t="s">
+        <v>491</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D150" t="s">
+        <v>440</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J150" t="s">
+        <v>492</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D151" t="s">
+        <v>441</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J151" t="s">
+        <v>493</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D152" t="s">
+        <v>442</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J152" t="s">
+        <v>494</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D153" t="s">
+        <v>443</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J153" t="s">
+        <v>495</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" t="s">
+        <v>444</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J154" t="s">
+        <v>496</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D155" t="s">
+        <v>445</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J155" t="s">
+        <v>497</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D156" t="s">
+        <v>446</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J156" t="s">
+        <v>498</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D157" t="s">
+        <v>220</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J157" t="s">
+        <v>177</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J158" t="s">
+        <v>499</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J159" t="s">
+        <v>500</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J160" t="s">
+        <v>501</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D161" t="s">
+        <v>447</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J161" t="s">
+        <v>502</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D162" t="s">
+        <v>401</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J162" t="s">
+        <v>503</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D163" t="s">
+        <v>421</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J163" t="s">
+        <v>504</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D164" t="s">
+        <v>448</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J164" t="s">
+        <v>505</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D165" t="s">
+        <v>104</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J165" t="s">
+        <v>506</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D166" t="s">
+        <v>449</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J166" t="s">
+        <v>507</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D167" t="s">
+        <v>450</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J167" t="s">
+        <v>508</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D168" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J168" t="s">
+        <v>509</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D169" t="s">
+        <v>452</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J169" t="s">
+        <v>510</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D170" t="s">
+        <v>453</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J170" t="s">
+        <v>511</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D171" t="s">
+        <v>454</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J171" t="s">
+        <v>512</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D172" t="s">
+        <v>455</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J172" t="s">
+        <v>513</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D173" t="s">
+        <v>456</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J173" t="s">
+        <v>514</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D174" t="s">
+        <v>457</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J174" t="s">
+        <v>515</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D175" t="s">
+        <v>239</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J175" t="s">
+        <v>516</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D176" t="s">
+        <v>458</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J176" t="s">
+        <v>517</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D177" t="s">
+        <v>322</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J177" t="s">
+        <v>518</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D178" t="s">
+        <v>459</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J178" t="s">
+        <v>519</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D179" t="s">
+        <v>460</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J179" t="s">
+        <v>520</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D180" t="s">
+        <v>461</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J180" t="s">
+        <v>521</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D181" t="s">
+        <v>462</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J181" t="s">
+        <v>522</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D182" t="s">
+        <v>463</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J182" t="s">
+        <v>523</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -2014,6 +8422,7 @@
     <hyperlink ref="H27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="H28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="H29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{22E06ED3-35EF-BB48-A095-4AD4011C857F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
